--- a/data/dataFromageBDD.xlsx
+++ b/data/dataFromageBDD.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabrice.camus\OneDrive - unige.ch\Digital Humanities\SP Distant Reading - Visualisation\Projet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="113_{7E9F42DC-90B5-4535-B68F-E5B99719782D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8873A521-7696-4277-9079-BADAB66D8E89}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="113_{7E9F42DC-90B5-4535-B68F-E5B99719782D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{65046891-6226-47C4-9700-463AE1D2681C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="13395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exporter la feuille de calcul" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="Canton" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="170">
   <si>
     <t>FORMERICHE</t>
   </si>
@@ -506,19 +506,38 @@
     <t>Farvagny-le-Grand (F 4)</t>
   </si>
   <si>
-    <t>select '&lt;p class="'||f.cssclasseforme||'"&gt;'|| FORMETYPOGRAPHIE ||'&lt;/p&gt;' as formeriche, FormeLangueLibelle as langue, l.libelle ||' ('||l.code||')' as localisation, l.numero as pkloc, l.latitude,l.longitude 
-FROM V_WEB_FORMES_LIS f
-INNER JOIN formerefs fref ON f.pkforme=fref.num_formes
-INNER JOIN localisations l ON l.numero=fref.num_localisations
-INNER JOIN type_localisations tl on tl.numero=l.num_type_loc
-where num_entetes=65848 and tl.abreviation IN ('C','H')</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -529,6 +548,14 @@
     <font>
       <sz val="11"/>
       <name val="Dialog"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -548,16 +575,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -875,9 +905,9 @@
   </sheetPr>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G137"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4185,18 +4215,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>161</v>
       </c>
+      <c r="B3">
+        <v>321</v>
+      </c>
+      <c r="C3">
+        <v>46.971600000000002</v>
+      </c>
+      <c r="D3">
+        <v>6.9127999999999998</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"update localisations set latitude="&amp;C3&amp;", longitude="&amp;D3&amp;" where numero="&amp;B3&amp;";"</f>
+        <v>update localisations set latitude=46.9716, longitude=6.9128 where numero=321;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>388</v>
+      </c>
+      <c r="C4">
+        <v>47.421199999999999</v>
+      </c>
+      <c r="D4">
+        <v>7.0072000000000001</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E9" si="0">"update localisations set latitude="&amp;C4&amp;", longitude="&amp;D4&amp;" where numero="&amp;B4&amp;";"</f>
+        <v>update localisations set latitude=47.4212, longitude=7.0072 where numero=388;</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>1189</v>
+      </c>
+      <c r="C5">
+        <v>47.0364</v>
+      </c>
+      <c r="D5">
+        <v>7.4047999999999998</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>update localisations set latitude=47.0364, longitude=7.4048 where numero=1189;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>116</v>
+      </c>
+      <c r="C6">
+        <v>46.495800000000003</v>
+      </c>
+      <c r="D6">
+        <v>6.5856000000000003</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>update localisations set latitude=46.4958, longitude=6.5856 where numero=116;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7">
+        <v>209</v>
+      </c>
+      <c r="C7">
+        <v>46.011699999999998</v>
+      </c>
+      <c r="D7">
+        <v>7.5420999999999996</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>update localisations set latitude=46.0117, longitude=7.5421 where numero=209;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8">
+        <v>229</v>
+      </c>
+      <c r="C8">
+        <v>46.177900000000001</v>
+      </c>
+      <c r="D8">
+        <v>6.2291999999999996</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>update localisations set latitude=46.1779, longitude=6.2292 where numero=229;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <v>278</v>
+      </c>
+      <c r="C9">
+        <v>46.819800000000001</v>
+      </c>
+      <c r="D9">
+        <v>7.2153</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>update localisations set latitude=46.8198, longitude=7.2153 where numero=278;</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="map=12/46.9716/6.9128" display="map=12/46.9716/6.9128" xr:uid="{43D3E6AD-BAA1-4F07-B9E1-3DD4FB013F7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>